--- a/SuplementaryResult/PMFsaccharoResultandAnalysis/PFMloading.xlsx
+++ b/SuplementaryResult/PMFsaccharoResultandAnalysis/PFMloading.xlsx
@@ -5,26 +5,27 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Loadings" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Change in metabolites" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
-  <si>
-    <t>PFMA_L2 (lambda = 50)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+  <si>
+    <t>PFMA_L2 (lambda = 5)</t>
   </si>
   <si>
     <t>PCA</t>
   </si>
   <si>
-    <t>PMFA_L1</t>
+    <t>Alternative Solution PFMA_L2 (lambda = 5)</t>
   </si>
   <si>
     <t>PMF1</t>
@@ -45,280 +46,312 @@
     <t>PC3</t>
   </si>
   <si>
+    <t>Fraction of sample variance</t>
+  </si>
+  <si>
+    <r>
+      <t>Metabolites changes ||SW||</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>' Glc =&gt; G6P'</t>
+  </si>
+  <si>
+    <t>' G6P =&gt; 6PG'</t>
+  </si>
+  <si>
+    <t>' 6PG =&gt; Ru5P + CO2_in'</t>
+  </si>
+  <si>
+    <t>' G6P = F6P'</t>
+  </si>
+  <si>
+    <t>' F6P = DHAP + GAP'</t>
+  </si>
+  <si>
+    <t>' DHAP = GAP'</t>
+  </si>
+  <si>
+    <t>' GAP = PGA'</t>
+  </si>
+  <si>
+    <t>' PGA = PEP'</t>
+  </si>
+  <si>
+    <t>' PEP =&gt; Pyr_cyt'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt =&gt; Pyr_mit'</t>
+  </si>
+  <si>
+    <t>' Pyr_mit =&gt; AcCOA_mit + CO2_in'</t>
+  </si>
+  <si>
+    <t>' Oxa_mit + AcCOA_mit =&gt; IsoCit'</t>
+  </si>
+  <si>
+    <t>' IsoCit =&gt; aKG + CO2_in'</t>
+  </si>
+  <si>
+    <t>' aKG =&gt; Suc + CO2_in'</t>
+  </si>
+  <si>
+    <t>' Suc = Mal'</t>
+  </si>
+  <si>
+    <t>' Mal = Oxa_mit'</t>
+  </si>
+  <si>
+    <t>' Mal =&gt; Pyr_mit + CO2_in'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt =&gt; AcAl + CO2_in'</t>
+  </si>
+  <si>
+    <t>' AcAl =&gt; Ac'</t>
+  </si>
+  <si>
+    <t>' Ac =&gt; AcCOA_cyt'</t>
+  </si>
+  <si>
+    <t>' AcCOA_cyt =&gt; AcCOA_mit'</t>
+  </si>
+  <si>
+    <t>' Oxa_mit = Oxa_cyt'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt + CO2_in =&gt; Oxa_cyt'</t>
+  </si>
+  <si>
+    <t>' Oxa_cyt =&gt; Thr'</t>
+  </si>
+  <si>
+    <t>' Thr =&gt; Gly + AcAl'</t>
+  </si>
+  <si>
+    <t>' Ru5P = R5P'</t>
+  </si>
+  <si>
+    <t>' Ru5P = Xu5P'</t>
+  </si>
+  <si>
+    <t>' R5P + Xu5P = S7P + GAP'</t>
+  </si>
+  <si>
+    <t>' GAP + S7P = F6P + E4P'</t>
+  </si>
+  <si>
+    <t>' E4P + Xu5P = F6P + GAP'</t>
+  </si>
+  <si>
+    <t>' PGA =&gt; Ser'</t>
+  </si>
+  <si>
+    <t>' Ser =&gt; Gly + CO2_in'</t>
+  </si>
+  <si>
+    <t>' IsoCit =&gt; Suc + Glxy'</t>
+  </si>
+  <si>
+    <t>' Glxy + AcCOA_cyt =&gt; Oxa_cyt'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt =&gt; pre_Ala'</t>
+  </si>
+  <si>
+    <t>' Pyr_mit =&gt; pre_Ala'</t>
+  </si>
+  <si>
+    <t>' AcAl =&gt; EtOH_ex'</t>
+  </si>
+  <si>
+    <t>'mu (1/h): 0.44 G6P + 0.15 R5P + 0.09 E4P + 0.26 GAP + 0.19 PEP + 0.06 Pyr_cyt + 0.65 AcCOA_cyt + 0.64 Pyr_mit + 0.37 Oxa_cyt + 0.13 AcCOA_mit + 0.4 aKG + 0.2904 Gly + 0.1854 Ser + 0.1914 Thr + 0.357 pre_Ala =&gt; 1 Biomass'</t>
+  </si>
+  <si>
+    <t>' Oxa_cyt =&gt; SAM'</t>
+  </si>
+  <si>
+    <t>' Mal =&gt; Mal_ex'</t>
+  </si>
+  <si>
+    <t>' Ac =&gt; Ac_ex'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt =&gt; Lac_ex'</t>
+  </si>
+  <si>
+    <t>' Pyr_cyt =&gt; Pyr_ex'</t>
+  </si>
+  <si>
+    <t>' IsoCit =&gt; Cit_ex'</t>
+  </si>
+  <si>
+    <t>' Suc =&gt; Suc_ex'</t>
+  </si>
+  <si>
+    <t>' DHAP =&gt; Glyc_ex'</t>
+  </si>
+  <si>
+    <t>' CO2_in = CO2_ex'</t>
+  </si>
+  <si>
+    <t>'Glc '</t>
+  </si>
+  <si>
+    <t>'G6P'</t>
+  </si>
+  <si>
+    <t>'6PG'</t>
+  </si>
+  <si>
+    <t>'Ru5P '</t>
+  </si>
+  <si>
+    <t>'CO2_in'</t>
+  </si>
+  <si>
+    <t>'F6P'</t>
+  </si>
+  <si>
+    <t>'DHAP'</t>
+  </si>
+  <si>
+    <t>'GAP'</t>
+  </si>
+  <si>
+    <t>'PGA'</t>
+  </si>
+  <si>
+    <t>'PEP'</t>
+  </si>
+  <si>
+    <t>'Pyr_cyt'</t>
+  </si>
+  <si>
+    <t>'Pyr_mit'</t>
+  </si>
+  <si>
+    <t>'AcCOA_mit '</t>
+  </si>
+  <si>
+    <t>'Oxa_mit'</t>
+  </si>
+  <si>
+    <t>'IsoCit'</t>
+  </si>
+  <si>
+    <t>'aKG'</t>
+  </si>
+  <si>
+    <t>'Suc'</t>
+  </si>
+  <si>
+    <t>'Mal'</t>
+  </si>
+  <si>
+    <t>'AcAl'</t>
+  </si>
+  <si>
+    <t>'Ac'</t>
+  </si>
+  <si>
+    <t>'AcCOA_cyt'</t>
+  </si>
+  <si>
+    <t>'Oxa_cyt'</t>
+  </si>
+  <si>
+    <t>'Thr'</t>
+  </si>
+  <si>
+    <t>'Gly'</t>
+  </si>
+  <si>
+    <t>'R5P'</t>
+  </si>
+  <si>
+    <t>'Xu5P'</t>
+  </si>
+  <si>
+    <t>'S7P'</t>
+  </si>
+  <si>
+    <t>'E4P'</t>
+  </si>
+  <si>
+    <t>'Ser'</t>
+  </si>
+  <si>
+    <t>'Glxy'</t>
+  </si>
+  <si>
+    <t>'pre_Ala_ex'</t>
+  </si>
+  <si>
+    <t>'EtOH_ex'</t>
+  </si>
+  <si>
+    <t>'BIOMASS'</t>
+  </si>
+  <si>
+    <t>'SAM'</t>
+  </si>
+  <si>
+    <t>'Mal_ex'</t>
+  </si>
+  <si>
+    <t>'Ac_ex'</t>
+  </si>
+  <si>
+    <t>'Lac_ex'</t>
+  </si>
+  <si>
+    <t>'Pyr_ex'</t>
+  </si>
+  <si>
+    <t>'Cit_ex'</t>
+  </si>
+  <si>
+    <t>'Suc_ex'</t>
+  </si>
+  <si>
+    <t>'Glyc_ex'</t>
+  </si>
+  <si>
+    <t>'CO2_ex'</t>
+  </si>
+  <si>
+    <t>PFMA_L2</t>
+  </si>
+  <si>
+    <t>(lambda =5)</t>
+  </si>
+  <si>
     <t>Percentage of sample variance</t>
   </si>
   <si>
-    <t>Metabolites changes ||SW||1</t>
-  </si>
-  <si>
-    <t>' Glc =&gt; G6P'</t>
-  </si>
-  <si>
-    <t>' G6P =&gt; 6PG'</t>
-  </si>
-  <si>
-    <t>' 6PG =&gt; Ru5P + CO2_in'</t>
-  </si>
-  <si>
-    <t>' G6P = F6P'</t>
-  </si>
-  <si>
-    <t>' F6P = DHAP + GAP'</t>
-  </si>
-  <si>
-    <t>' DHAP = GAP'</t>
-  </si>
-  <si>
-    <t>' GAP = PGA'</t>
-  </si>
-  <si>
-    <t>' PGA = PEP'</t>
-  </si>
-  <si>
-    <t>' PEP =&gt; Pyr_cyt'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt =&gt; Pyr_mit'</t>
-  </si>
-  <si>
-    <t>' Pyr_mit =&gt; AcCOA_mit + CO2_in'</t>
-  </si>
-  <si>
-    <t>' Oxa_mit + AcCOA_mit =&gt; IsoCit'</t>
-  </si>
-  <si>
-    <t>' IsoCit =&gt; aKG + CO2_in'</t>
-  </si>
-  <si>
-    <t>' aKG =&gt; Suc + CO2_in'</t>
-  </si>
-  <si>
-    <t>' Suc = Mal'</t>
-  </si>
-  <si>
-    <t>' Mal = Oxa_mit'</t>
-  </si>
-  <si>
-    <t>' Mal =&gt; Pyr_mit + CO2_in'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt =&gt; AcAl + CO2_in'</t>
-  </si>
-  <si>
-    <t>' AcAl =&gt; Ac'</t>
-  </si>
-  <si>
-    <t>' Ac =&gt; AcCOA_cyt'</t>
-  </si>
-  <si>
-    <t>' AcCOA_cyt =&gt; AcCOA_mit'</t>
-  </si>
-  <si>
-    <t>' Oxa_mit = Oxa_cyt'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt + CO2_in =&gt; Oxa_cyt'</t>
-  </si>
-  <si>
-    <t>' Oxa_cyt =&gt; Thr'</t>
-  </si>
-  <si>
-    <t>' Thr =&gt; Gly + AcAl'</t>
-  </si>
-  <si>
-    <t>' Ru5P = R5P'</t>
-  </si>
-  <si>
-    <t>' Ru5P = Xu5P'</t>
-  </si>
-  <si>
-    <t>' R5P + Xu5P = S7P + GAP'</t>
-  </si>
-  <si>
-    <t>' GAP + S7P = F6P + E4P'</t>
-  </si>
-  <si>
-    <t>' E4P + Xu5P = F6P + GAP'</t>
-  </si>
-  <si>
-    <t>' PGA =&gt; Ser'</t>
-  </si>
-  <si>
-    <t>' Ser =&gt; Gly + CO2_in'</t>
-  </si>
-  <si>
-    <t>' IsoCit =&gt; Suc + Glxy'</t>
-  </si>
-  <si>
-    <t>' Glxy + AcCOA_cyt =&gt; Oxa_cyt'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt =&gt; pre_Ala'</t>
-  </si>
-  <si>
-    <t>' Pyr_mit =&gt; pre_Ala'</t>
-  </si>
-  <si>
-    <t>' AcAl =&gt; EtOH_ex'</t>
-  </si>
-  <si>
-    <t>'mu (1/h): 0.44 G6P + 0.15 R5P + 0.09 E4P + 0.26 GAP + 0.19 PEP + 0.06 Pyr_cyt + 0.65 AcCOA_cyt + 0.64 Pyr_mit + 0.37 Oxa_cyt + 0.13 AcCOA_mit + 0.4 aKG + 0.2904 Gly + 0.1854 Ser + 0.1914 Thr + 0.357 pre_Ala =&gt; 1 Biomass'</t>
-  </si>
-  <si>
-    <t>' Oxa_cyt =&gt; SAM'</t>
-  </si>
-  <si>
-    <t>' Mal =&gt; Mal_ex'</t>
-  </si>
-  <si>
-    <t>' Ac =&gt; Ac_ex'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt =&gt; Lac_ex'</t>
-  </si>
-  <si>
-    <t>' Pyr_cyt =&gt; Pyr_ex'</t>
-  </si>
-  <si>
-    <t>' IsoCit =&gt; Cit_ex'</t>
-  </si>
-  <si>
-    <t>' Suc =&gt; Suc_ex'</t>
-  </si>
-  <si>
-    <t>' DHAP =&gt; Glyc_ex'</t>
-  </si>
-  <si>
-    <t>' CO2_in = CO2_ex'</t>
-  </si>
-  <si>
-    <t>Metabolites changes ||SW||2</t>
-  </si>
-  <si>
-    <t>'Glc '</t>
-  </si>
-  <si>
-    <t>'G6P'</t>
-  </si>
-  <si>
-    <t>'6PG'</t>
-  </si>
-  <si>
-    <t>'Ru5P '</t>
-  </si>
-  <si>
-    <t>'CO2_in'</t>
-  </si>
-  <si>
-    <t>'F6P'</t>
-  </si>
-  <si>
-    <t>'DHAP'</t>
-  </si>
-  <si>
-    <t>'GAP'</t>
-  </si>
-  <si>
-    <t>'PGA'</t>
-  </si>
-  <si>
-    <t>'PEP'</t>
-  </si>
-  <si>
-    <t>'Pyr_cyt'</t>
-  </si>
-  <si>
-    <t>'Pyr_mit'</t>
-  </si>
-  <si>
-    <t>'AcCOA_mit '</t>
-  </si>
-  <si>
-    <t>'Oxa_mit'</t>
-  </si>
-  <si>
-    <t>'IsoCit'</t>
-  </si>
-  <si>
-    <t>'aKG'</t>
-  </si>
-  <si>
-    <t>'Suc'</t>
-  </si>
-  <si>
-    <t>'Mal'</t>
-  </si>
-  <si>
-    <t>'AcAl'</t>
-  </si>
-  <si>
-    <t>'Ac'</t>
-  </si>
-  <si>
-    <t>'AcCOA_cyt'</t>
-  </si>
-  <si>
-    <t>'Oxa_cyt'</t>
-  </si>
-  <si>
-    <t>'Thr'</t>
-  </si>
-  <si>
-    <t>'Gly'</t>
-  </si>
-  <si>
-    <t>'R5P'</t>
-  </si>
-  <si>
-    <t>'Xu5P'</t>
-  </si>
-  <si>
-    <t>'S7P'</t>
-  </si>
-  <si>
-    <t>'E4P'</t>
-  </si>
-  <si>
-    <t>'Ser'</t>
-  </si>
-  <si>
-    <t>'Glxy'</t>
-  </si>
-  <si>
-    <t>'pre_Ala_ex'</t>
-  </si>
-  <si>
-    <t>'EtOH_ex'</t>
-  </si>
-  <si>
-    <t>'BIOMASS'</t>
-  </si>
-  <si>
-    <t>'SAM'</t>
-  </si>
-  <si>
-    <t>'Mal_ex'</t>
-  </si>
-  <si>
-    <t>'Ac_ex'</t>
-  </si>
-  <si>
-    <t>'Lac_ex'</t>
-  </si>
-  <si>
-    <t>'Pyr_ex'</t>
-  </si>
-  <si>
-    <t>'Cit_ex'</t>
-  </si>
-  <si>
-    <t>'Suc_ex'</t>
-  </si>
-  <si>
-    <t>'Glyc_ex'</t>
-  </si>
-  <si>
-    <t>'CO2_ex'</t>
+    <r>
+      <t>Metabolites changes ||SW||</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -330,7 +363,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -351,6 +384,30 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,12 +417,61 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -394,12 +500,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -409,6 +519,82 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -428,38 +614,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -471,13 +660,13 @@
       <c r="I3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -486,13 +675,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>73.2412030590166</v>
+        <v>0.9411289388987</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>74.0379655309613</v>
+        <v>0.949881688223014</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>74.3498992833902</v>
+        <v>0.957588272345307</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="n">
@@ -506,53 +695,50 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="n">
-        <v>63.49</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>64.25</v>
+        <v>0.761878934523462</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.774297033800886</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>64.53</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.776597624792046</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>0.438224417437402</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0.0925461713831986</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.0181566794023754</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="n">
-        <v>0.621298754441258</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0.74034188040546</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1.0417196914809</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="C5" s="1" t="n">
+        <v>0.274390658828</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.281337538828</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>0.283123344860652</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.381023696291994</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.04508378023619</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>0.121929113070532</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>0.0146631140879037</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>0.00144533629306775</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -567,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.263659931155116</v>
+        <v>0.267</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.184618994366386</v>
+        <v>0.0083</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.180796676699434</v>
+        <v>0.0099</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="n">
@@ -587,13 +773,13 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="n">
-        <v>0.264906473138038</v>
+        <v>0.32338466237505</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.185695343455684</v>
+        <v>0.198845079171032</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.176781543217436</v>
+        <v>0.114340109466256</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.0289120351126458</v>
+        <v>0.0502</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.00392937624265132</v>
+        <v>0.0382</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.00132171344745395</v>
+        <v>0.2812</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="n">
@@ -621,13 +807,13 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="n">
-        <v>4.18492268994474E-009</v>
+        <v>0.00318375455578866</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.62056825756318E-008</v>
+        <v>0.0995344612023977</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>4.70403017422627E-008</v>
+        <v>0.440731473981573</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,13 +821,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>1.75218251645694E-010</v>
+        <v>0.0328</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>2.08682783670723E-010</v>
+        <v>0.0882</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>3.36714223060184E-007</v>
+        <v>0.261</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="n">
@@ -655,13 +841,13 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="n">
-        <v>3.84827478623636E-009</v>
+        <v>1.21699242028874E-013</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>1.54352551544261E-008</v>
+        <v>0.0739688246853349</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>4.67070097730403E-008</v>
+        <v>0.449911941576673</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,13 +855,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>0.222040154560555</v>
+        <v>0.1985</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>0.178879676271855</v>
+        <v>-0.0402</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.178316671028213</v>
+        <v>-0.2812</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="n">
@@ -689,13 +875,13 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="n">
-        <v>0.264906471473822</v>
+        <v>0.323384662374891</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.185695322620967</v>
+        <v>0.0866369334893592</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.176781481937602</v>
+        <v>-0.323739614621909</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,13 +889,13 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>0.19204759528854</v>
+        <v>0.2295</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.17990547143856</v>
+        <v>-0.0212</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.178167969869948</v>
+        <v>-0.021</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="n">
@@ -723,13 +909,13 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="n">
-        <v>0.264906472187421</v>
+        <v>0.266697082363093</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0.185695332071728</v>
+        <v>0.139548417731592</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.17678150583437</v>
+        <v>-0.0290740808028443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,13 +923,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>0.170021127221288</v>
+        <v>0.2122</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.179408995261246</v>
+        <v>-0.0147</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.177758601338645</v>
+        <v>-0.0165</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="n">
@@ -757,13 +943,13 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="n">
-        <v>0.264906468421736</v>
+        <v>0.13287786796154</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>0.185695324480404</v>
+        <v>0.135812431737965</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.176773040917777</v>
+        <v>-0.0721908425699565</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,13 +957,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>0.346612895028593</v>
+        <v>0.4539</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.359193422203945</v>
+        <v>-0.0259</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.35542724836372</v>
+        <v>0.096</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="n">
@@ -791,13 +977,13 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="n">
-        <v>0.264906473723249</v>
+        <v>0.323384662375092</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0.371390659536136</v>
+        <v>0.297809198190341</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.353554553247634</v>
+        <v>0.0475966301694199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,13 +991,13 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>0.345395605977113</v>
+        <v>0.4455</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.359192325246935</v>
+        <v>-0.0359</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.353820450134598</v>
+        <v>0.1244</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="n">
@@ -825,13 +1011,13 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="n">
-        <v>0.264906473322587</v>
+        <v>0.323384662375067</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0.371390653117693</v>
+        <v>0.297809117212528</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.353554539929593</v>
+        <v>0.0508915836347126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,13 +1025,13 @@
         <v>19</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>0.346612895011079</v>
+        <v>0.4378</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.359193422241326</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.353384896085423</v>
+        <v>0.1693</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="n">
@@ -859,13 +1045,13 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="n">
-        <v>0.264906473548753</v>
+        <v>0.323384662375089</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>0.371390652029019</v>
+        <v>0.297809198190707</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.353554534828839</v>
+        <v>0.0526546019850803</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,13 +1059,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1.06306256123501E-010</v>
+        <v>0.0816</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.165429098139419</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.00122007707993753</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="n">
@@ -893,13 +1079,13 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="n">
-        <v>5.30709594638015E-009</v>
+        <v>6.733717387891E-014</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0.185695213961896</v>
+        <v>0.0631299407374838</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1.9915146590675E-008</v>
+        <v>7.20561332124207E-007</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,13 +1093,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>0.0287040063150086</v>
+        <v>0.0965</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.16804166447117</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>7.30843147345381E-007</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="n">
@@ -927,13 +1113,13 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="n">
-        <v>0.132453230790319</v>
+        <v>0.0557819688954137</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0.185695210452677</v>
+        <v>0.0756603473632698</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>4.8783778395348E-008</v>
+        <v>4.36372071254255E-007</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,13 +1127,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>0.0513843210933219</v>
+        <v>0.1149</v>
       </c>
       <c r="D18" s="1" t="n">
-        <v>0.201509139304348</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>0.00358850263491141</v>
+        <v>0.2812</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="n">
@@ -961,13 +1147,13 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="n">
-        <v>0.132453246103699</v>
+        <v>0.0602736774075041</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.185695418295745</v>
+        <v>0.247262982822804</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>8.61337063443295E-008</v>
+        <v>3.5294541273885E-005</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,13 +1161,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>8.51872903258753E-011</v>
+        <v>0.0981</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>0.196972999905189</v>
+        <v>0.0352</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0.000664438446010489</v>
+        <v>0.1726</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="n">
@@ -995,13 +1181,13 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="n">
-        <v>3.20293575212124E-009</v>
+        <v>5.81324426145555E-013</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.185695398269278</v>
+        <v>0.223608441886676</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>2.8499813529987E-008</v>
+        <v>1.16645074626454E-006</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,13 +1195,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>0.00060174654429485</v>
+        <v>0.0819</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.201023801822743</v>
+        <v>0.0297</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>2.62542754456072E-007</v>
+        <v>0.1909</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="n">
@@ -1029,13 +1215,13 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="n">
-        <v>7.27146739066522E-011</v>
+        <v>2.58276675507268E-010</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>0.185695396656314</v>
+        <v>0.238659763909824</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>1.62572363826987E-008</v>
+        <v>0.000438097516908069</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>0.0583994884921816</v>
+        <v>0.0978</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.213973222516388</v>
+        <v>-0.0266</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.00269546827628969</v>
+        <v>0.2812</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="n">
@@ -1063,13 +1249,13 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="n">
-        <v>7.28815059071035E-009</v>
+        <v>-0.0303537429163857</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.185695412171049</v>
+        <v>0.294878312476595</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-8.42151409478213E-006</v>
+        <v>-0.0428899393584275</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,13 +1263,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>0.0208688249726761</v>
+        <v>0.0504</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.216495021851053</v>
+        <v>-0.0453</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.00185347513160767</v>
+        <v>0.2812</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="n">
@@ -1097,13 +1283,13 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="n">
-        <v>-0.132453224209323</v>
+        <v>-0.0957461903985928</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.185695395196419</v>
+        <v>0.297809198189012</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-1.26246112030091E-005</v>
+        <v>-0.0382085069990145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,13 +1297,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>0.0252171561917961</v>
+        <v>0.0308</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>1.68987816637876E-011</v>
+        <v>0.0683</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>9.27381987069916E-006</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="n">
@@ -1131,13 +1317,13 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="n">
-        <v>0.132453231729878</v>
+        <v>0.0622684700159001</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>6.64723070408337E-009</v>
+        <v>5.58303789886979E-013</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>5.75153510727432E-008</v>
+        <v>0.0015258013945968</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1331,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>0.346612894676583</v>
+        <v>0.257</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>4.71446219178697E-011</v>
+        <v>0.218</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>5.95938283526679E-007</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="n">
@@ -1165,13 +1351,13 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="n">
-        <v>0.264906472533014</v>
+        <v>0.323384662375034</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>3.73775193848004E-008</v>
+        <v>2.48140243908103E-012</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1.04925731371658E-007</v>
+        <v>0.0532434768398121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,13 +1365,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>0.0276022534025981</v>
+        <v>0.0655</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.011152806776081</v>
+        <v>0.1034</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.00139791560161921</v>
+        <v>0.1309</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="n">
@@ -1199,13 +1385,13 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="n">
-        <v>3.03219844812179E-008</v>
+        <v>0.0372466656699478</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>2.24642319494243E-007</v>
+        <v>0.0614472677696019</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>9.37877838657178E-008</v>
+        <v>0.0410626133252475</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,13 +1399,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>0.0358353622523735</v>
+        <v>0.0309</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.0195296833706935</v>
+        <v>0.1885</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.00226674297200496</v>
+        <v>0.2126</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="n">
@@ -1233,13 +1419,13 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="n">
-        <v>2.84700798173198E-008</v>
+        <v>0.0614251711442379</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>2.26359713931091E-007</v>
+        <v>0.103685195547081</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>8.75436034041583E-008</v>
+        <v>0.0362735702523525</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1247,13 +1433,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>7.74864164652534E-010</v>
+        <v>0.0068</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.0266814505054902</v>
+        <v>0.1679</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.00233407579442703</v>
+        <v>0.2565</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="n">
@@ -1267,13 +1453,13 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="n">
-        <v>1.41047941688034E-008</v>
+        <v>1.15337721893664E-013</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>2.06918208414969E-007</v>
+        <v>0.136563763701062</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>4.09213749600816E-008</v>
+        <v>0.00994368380360346</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,13 +1467,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>-0.0377105464302307</v>
+        <v>-0.0664</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.0136152099536572</v>
+        <v>-0.004</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.00321392055625235</v>
+        <v>0.0026</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="n">
@@ -1301,13 +1487,13 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="n">
-        <v>-0.264906469886476</v>
+        <v>-0.136755891289383</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>-2.18953157857276E-008</v>
+        <v>0.0413977015171738</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-1.27103866353403E-005</v>
+        <v>-0.028136353561914</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,13 +1501,13 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>0.0107548354579763</v>
+        <v>0.098</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.198816403980744</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.352163963379237</v>
+        <v>0.2336</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="n">
@@ -1335,13 +1521,13 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="n">
-        <v>0.264906469721775</v>
+        <v>0.0448842695243843</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>0.185695396641067</v>
+        <v>0.259117387058415</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.353554384040193</v>
+        <v>1.06534886696035E-006</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,13 +1535,13 @@
         <v>34</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>2.01752360046429E-010</v>
+        <v>0.0092</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.000888075535454848</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.000987274310890607</v>
+        <v>0.0046</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="n">
@@ -1369,13 +1555,13 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="n">
-        <v>5.75301102587665E-009</v>
+        <v>1.218703493417E-013</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>8.89855521153018E-009</v>
+        <v>0.00482409920133687</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>1.17835676022905E-008</v>
+        <v>2.19929233494619E-007</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,13 +1569,13 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>2.03590270262165E-011</v>
+        <v>0.0022</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>9.88280900474413E-012</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>5.91442205067696E-008</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="n">
@@ -1403,13 +1589,13 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="n">
-        <v>2.4198472505819E-009</v>
+        <v>8.38976096345952E-014</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>3.60165615550395E-009</v>
+        <v>2.17648034051156E-013</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>4.61168909615335E-009</v>
+        <v>0.00300966734405957</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>0.0107629263792436</v>
+        <v>0.0183</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-4.5712047068412E-006</v>
+        <v>0.016</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.0002655151131059</v>
+        <v>0.0781</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="n">
@@ -1437,13 +1623,13 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="n">
-        <v>2.79391343018566E-009</v>
+        <v>0.0155115836174756</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>6.37312814667604E-009</v>
+        <v>0.0260177662804635</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>1.98001694512278E-008</v>
+        <v>0.149886412704659</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,13 +1637,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>-0.00252246881561616</v>
+        <v>0.0309</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.00139738289854169</v>
+        <v>0.0267</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.000228244011830846</v>
+        <v>0.2215</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="n">
@@ -1471,13 +1657,13 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="n">
-        <v>4.26767084570497E-010</v>
+        <v>-0.0238068454793603</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>9.68106254321486E-009</v>
+        <v>0.057421507674851</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>2.68685800914838E-008</v>
+        <v>0.295379158520714</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,13 +1671,13 @@
         <v>38</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.00548095958658009</v>
+        <v>0.0178</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.000676783547355301</v>
+        <v>0.0118</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.000211577975786133</v>
+        <v>0.104</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="n">
@@ -1505,13 +1691,13 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="n">
-        <v>7.43043250316422E-010</v>
+        <v>-0.0045868966030591</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>5.23456089008847E-009</v>
+        <v>0.0295664555893283</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>1.49114974735305E-008</v>
+        <v>0.147801670256686</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,13 +1705,13 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>-0.00321891368122864</v>
+        <v>0.0175</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.000989459046788386</v>
+        <v>0.0103</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.000120501703870762</v>
+        <v>0.1198</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="n">
@@ -1539,13 +1725,13 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="n">
-        <v>2.10331809306281E-009</v>
+        <v>-0.00596722246693307</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>4.63139337930656E-009</v>
+        <v>0.0305263668888797</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>1.19629342397593E-008</v>
+        <v>0.146586592135487</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,13 +1739,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>-0.0148757755977525</v>
+        <v>0.0137</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.000655162071429661</v>
+        <v>0.0097</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-1.47166428581309E-005</v>
+        <v>0.1338</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="n">
@@ -1573,13 +1759,13 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="n">
-        <v>-1.47547369405979E-009</v>
+        <v>-0.0392963499928629</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>4.74936028464922E-009</v>
+        <v>0.027059325588728</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>1.19516447047191E-008</v>
+        <v>0.147051836011488</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1773,13 @@
         <v>41</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>0.00936025694972088</v>
+        <v>0.0069</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.000291151217189327</v>
+        <v>0.014</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.00122848794779785</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="n">
@@ -1607,13 +1793,13 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="n">
-        <v>3.80025716997283E-009</v>
+        <v>0.00748326947958097</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>8.01423794112735E-009</v>
+        <v>0.00297733206176477</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>1.38735744847214E-008</v>
+        <v>4.94479181546895E-010</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>1.78711912840806E-011</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>1.45017728217565E-011</v>
+        <v>0.0612</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>5.2069964224875E-008</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="n">
@@ -1641,13 +1827,13 @@
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="n">
-        <v>2.12434329760603E-009</v>
+        <v>1.79809961014723E-013</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>4.86586728759323E-009</v>
+        <v>3.07154537407909E-013</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>7.34960917751798E-009</v>
+        <v>0.00664057774490529</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,13 +1841,13 @@
         <v>43</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>0.0443972405329483</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.00583406873514145</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.0019329075781546</v>
+        <v>0.0436</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="n">
@@ -1675,13 +1861,13 @@
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="n">
-        <v>1.17517030233772E-008</v>
+        <v>0.0634286796856399</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>2.04329555667739E-008</v>
+        <v>0.0251664608266223</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>2.68456888297926E-008</v>
+        <v>0.00744112649353739</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,13 +1875,13 @@
         <v>44</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>0.0376602343353244</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>4.33012450386082E-011</v>
+        <v>0.0026</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>3.76089032443353E-007</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="n">
@@ -1709,13 +1895,13 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="n">
-        <v>1.0674851499809E-008</v>
+        <v>0.0720780938121579</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>1.79345351164336E-008</v>
+        <v>8.62825094330146E-013</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>2.66792988700073E-008</v>
+        <v>0.0199139964069413</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,13 +1909,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>5.51659874874255E-011</v>
+        <v>0.0032</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>2.08627228110175E-011</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>3.28731473174909E-006</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="n">
@@ -1743,13 +1929,13 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="n">
-        <v>1.70907520276205E-009</v>
+        <v>1.15100483801476E-013</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>3.55430152845823E-009</v>
+        <v>5.34159152877293E-013</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>5.28251911168806E-009</v>
+        <v>1.99955022414947E-006</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,13 +1943,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>7.92141913618783E-011</v>
+        <v>0.0019</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>4.15153974656471E-011</v>
+        <v>0.0083</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.000434520168679381</v>
+        <v>0.0002</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="n">
@@ -1777,13 +1963,13 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="n">
-        <v>3.20103880856208E-009</v>
+        <v>0.00161049765052989</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>4.64779031353344E-009</v>
+        <v>1.04974561473046E-012</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>8.41399247492755E-009</v>
+        <v>0.000445205901206644</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,13 +1977,13 @@
         <v>47</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>0.34661289475948</v>
+        <v>0.209</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>7.93425749030674E-012</v>
+        <v>0.0677</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>7.528064280849E-007</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="n">
@@ -1811,13 +1997,13 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="n">
-        <v>0.264906472331336</v>
+        <v>0.323384662375009</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>3.38490451175401E-009</v>
+        <v>1.986720680203E-013</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>7.83375096814471E-009</v>
+        <v>2.75613334121022E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,13 +2011,13 @@
         <v>48</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>7.9416333541705E-006</v>
+        <v>0.0145</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>1.41393824578637E-011</v>
+        <v>0.0083</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.00152777355902833</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="n">
@@ -1845,13 +2031,13 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="n">
-        <v>7.46112623366253E-009</v>
+        <v>1.37629549611656E-013</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.00705030667566E-008</v>
+        <v>4.22136788298536E-013</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>3.23872591104092E-008</v>
+        <v>0.000849000195720463</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,13 +2045,13 @@
         <v>49</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>8.82225240144225E-011</v>
+        <v>0.0006</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.210299706204215</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.346205883174893</v>
+        <v>0.2256</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="n">
@@ -1879,13 +2065,13 @@
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="n">
-        <v>2.5073202225843E-009</v>
+        <v>1.1082027528855E-013</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.185695379939132</v>
+        <v>0.286766525844417</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.353541676746623</v>
+        <v>2.59367908719583E-006</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1893,13 +2079,13 @@
         <v>50</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>1.38762493824666E-010</v>
+        <v>0.0004</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>3.09684595616885E-011</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>9.28046604583105E-006</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="n">
@@ -1913,13 +2099,13 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="n">
-        <v>4.36888508818863E-011</v>
+        <v>4.40149734807461E-013</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>1.23976768287379E-008</v>
+        <v>1.23647018107516E-012</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>4.14596075473894E-006</v>
+        <v>8.12752938357856E-006</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,13 +2113,13 @@
         <v>51</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>1.83204450835003E-010</v>
+        <v>0.0362</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>1.56663864238697E-011</v>
+        <v>0</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>7.53988247798586E-007</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="n">
@@ -1947,13 +2133,13 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="n">
-        <v>5.28970583321039E-009</v>
+        <v>1.3447816917447E-013</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>5.85483322228125E-009</v>
+        <v>3.81993237687861E-013</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>8.61268343660667E-009</v>
+        <v>1.20509471886682E-006</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1961,13 +2147,13 @@
         <v>52</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>7.27085543251066E-011</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>2.13900364180136E-011</v>
+        <v>0</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>6.18362464522851E-007</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="n">
@@ -1981,13 +2167,13 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="n">
-        <v>2.39923171973705E-009</v>
+        <v>7.60095366072075E-014</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>8.51661303064688E-009</v>
+        <v>5.58492972467731E-013</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>1.05087939900738E-008</v>
+        <v>8.07531708044688E-007</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,13 +2181,13 @@
         <v>53</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>7.27154275041441E-011</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>2.14073397139604E-011</v>
+        <v>0.0007</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>6.1699303837096E-007</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="n">
@@ -2015,13 +2201,13 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="n">
-        <v>2.40062024002428E-009</v>
+        <v>7.60210881264376E-014</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>8.52319292906733E-009</v>
+        <v>5.59078300849644E-013</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>1.05095206823101E-008</v>
+        <v>8.08435743740456E-007</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2029,13 +2215,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>7.48441783694737E-011</v>
+        <v>0.0006</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>4.36133467084273E-011</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="n">
-        <v>7.33655080301773E-007</v>
+        <v>0.0588</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="n">
@@ -2049,13 +2235,13 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="n">
-        <v>0.132453232440096</v>
+        <v>2.5001277664834E-013</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>2.06906843159732E-009</v>
+        <v>1.35068760935332E-012</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>3.14453465883215E-008</v>
+        <v>5.17336640007639E-006</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2063,13 +2249,13 @@
         <v>55</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>0.00667354280917468</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>1.7049861509681E-011</v>
+        <v>0.0036</v>
       </c>
       <c r="E51" s="1" t="n">
-        <v>9.07273163764659E-006</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="n">
@@ -2083,13 +2269,13 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="n">
-        <v>4.48833783611745E-009</v>
+        <v>0.112052210168038</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>7.22769533365231E-009</v>
+        <v>5.53670724284897E-013</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>8.46486194967342E-006</v>
+        <v>0.0454952115760554</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2097,13 +2283,13 @@
         <v>56</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>0.346612893175145</v>
+        <v>0.0181</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>1.40248493106237E-008</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.355404913395554</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="n">
@@ -2117,13 +2303,13 @@
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="n">
-        <v>0.264906474212952</v>
+        <v>0.323384662373951</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>0</v>
+        <v>2.22151146631762E-009</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>0.35355457343963</v>
+        <v>3.35260783071988E-005</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,13 +2317,13 @@
         <v>57</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>0.281282452215264</v>
+        <v>-0.0165</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.359193422245289</v>
+        <v>0.9192</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.354296179689584</v>
+        <v>0.2812</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="n">
@@ -2151,22 +2337,48 @@
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="n">
-        <v>0.264906470497554</v>
+        <v>0.061287774945497</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>0.371390666777942</v>
+        <v>0.297809198190851</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>-0.353554075559226</v>
-      </c>
+        <v>0.533378112031427</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1" t="n">
+        <v>107.809615625012</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>-0.209376383604409</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>5.31011793961216</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -2178,8 +2390,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2190,18 +2402,33 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L1" s="0" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="H1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="0" t="s">
@@ -2213,65 +2440,82 @@
       <c r="I3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0.9411289388987</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.949881688223014</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.957588272345307</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="1" t="n">
+        <v>0.965893282471577</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.990138037683906</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.999593173592292</v>
+      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1" t="n">
-        <v>63.49</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>64.25</v>
+        <v>0.761878934523462</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>0.774297033800886</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>64.53</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.776597624792046</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>0.438224417437402</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0.0925461713831986</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>0.0181566794023754</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="n">
-        <v>0.621298754441258</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0.74034188040546</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1.0417196914809</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0.274390658828</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.281337538828</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="n">
+        <v>0.283123344860652</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.381023696291994</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.04508378023619</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>0.121929113070532</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>0.0146631140879037</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>0.00144533629306775</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,16 +2529,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.0127042471632402</v>
+        <v>0.523823117882363</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.00180994184565858</v>
+        <v>0.530412611867403</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.000486071857793877</v>
+        <v>0.231300670124408</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="n">
@@ -2307,18 +2551,18 @@
         <v>-0.0173260053552072</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1.45472470386395E-009</v>
+        <v>-0.00318375455569042</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>-1.50752675063883E-014</v>
+        <v>0.0126736844790894</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>-3.87735360113842E-012</v>
+        <v>-0.00302530997952487</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.0289120349374275</v>
@@ -2340,18 +2584,18 @@
         <v>8.2572837456496E-016</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>2.32145044877221E-009</v>
+        <v>0.00318375455566696</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.40497030441573E-014</v>
+        <v>0.0255656365170627</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>1.86045623351561E-012</v>
+        <v>-0.00918046759510094</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-0.00824045738840915</v>
@@ -2373,18 +2617,18 @@
         <v>0.000657562295423339</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>1.9073950694316E-009</v>
+        <v>0.00829526186200635</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>1.79649524492108E-014</v>
+        <v>-0.00947044926997961</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>4.30389057726188E-012</v>
+        <v>0.0046463703513005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.10909851633272</v>
@@ -2406,18 +2650,18 @@
         <v>0.938104898492634</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>1.22518806211502E-009</v>
+        <v>0.335263057075626</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>1.66588964845005E-013</v>
+        <v>0.0549707925991866</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>3.57318064025947E-011</v>
+        <v>-0.0216176794845806</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.0118978699930333</v>
@@ -2439,18 +2683,18 @@
         <v>-0.00140472076868861</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>1.91126255398351E-009</v>
+        <v>0.011424007552002</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>-1.64144967358921E-015</v>
+        <v>0.00467420823537531</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>-5.83449955016135E-013</v>
+        <v>-0.00102710567208947</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.0153529252580776</v>
@@ -2472,18 +2716,18 @@
         <v>0.0077350618961134</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>8.17363371141892E-010</v>
+        <v>0.0217670042335141</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>-2.87130798076835E-014</v>
+        <v>0.00373598599307259</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>-6.64673979648599E-012</v>
+        <v>-0.00237844980894323</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.00927786032661964</v>
@@ -2505,18 +2749,18 @@
         <v>0.00324885133496008</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>2.69263490398911E-009</v>
+        <v>0.0382742638205165</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>-9.80968673984743E-015</v>
+        <v>0.00365106556828264</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-2.37211199705383E-012</v>
+        <v>-0.000815379460420458</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-0.00814296789824139</v>
@@ -2538,18 +2782,18 @@
         <v>-0.00113534126618612</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>-2.49239274682086E-009</v>
+        <v>-0.0074832694795561</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>-5.2282016830878E-014</v>
+        <v>-0.00297725108395176</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>-1.05164033915437E-011</v>
+        <v>-0.00329495395977192</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>-0.00121879794430352</v>
@@ -2571,18 +2815,18 @@
         <v>-0.00293482985938504</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-2.93513304923151E-009</v>
+        <v>-4.8409586069949E-014</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-1.1596893351356E-013</v>
+        <v>-8.09782584800058E-008</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-2.44940009591418E-011</v>
+        <v>-0.00192432838755454</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>-0.0107553119283778</v>
@@ -2604,18 +2848,18 @@
         <v>-0.00778181098626836</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-4.20358693023616E-009</v>
+        <v>-0.0448842695246722</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-2.28687102847069E-013</v>
+        <v>-0.0244381296093506</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-5.01706423245111E-011</v>
+        <v>-0.000645216294350066</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>-0.0034919327414671</v>
@@ -2637,18 +2881,18 @@
         <v>0.00347995017186158</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1.03893534569794E-009</v>
+        <v>0.00487600346993576</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-3.13867513435542E-014</v>
+        <v>-0.0125304066265476</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-5.65608326215391E-012</v>
+        <v>0.000537519557389934</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>-0.0226813464157851</v>
@@ -2670,18 +2914,18 @@
         <v>0.0054163896547587</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-1.07588663013513E-009</v>
+        <v>-0.00449170851199292</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1.72175736626824E-014</v>
+        <v>-0.0350388717585278</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>6.92365002596782E-012</v>
+        <v>0.00979845560895717</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.00719505030958491</v>
@@ -2703,18 +2947,18 @@
         <v>0.000579095645355394</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>-7.9118647773497E-010</v>
+        <v>-0.019263976516714</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>-4.54075382860329E-014</v>
+        <v>0.00914851384903393</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-9.87018884691178E-012</v>
+        <v>-0.0101074479783744</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.00698708040034207</v>
@@ -2736,18 +2980,18 @@
         <v>-0.000839629706844333</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>-1.40329354365834E-009</v>
+        <v>-0.00315500227896709</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>-7.37765628264598E-014</v>
+        <v>-0.00151191989184502</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>-1.54329073161986E-011</v>
+        <v>-0.00741217176940984</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>-0.000604923112449228</v>
@@ -2769,18 +3013,18 @@
         <v>-0.00376515903342963</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-1.27904795287348E-009</v>
+        <v>-2.57750402900967E-010</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>-2.43881620200444E-014</v>
+        <v>-0.0150513220233165</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-3.29183635202082E-012</v>
+        <v>-0.000776531144449989</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>-0.0200740442241131</v>
@@ -2802,18 +3046,18 @@
         <v>0.00102428865831568</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-1.11560252220781E-009</v>
+        <v>-0.0182697873077359</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>1.53661705713735E-014</v>
+        <v>-0.0310520877407024</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>6.78192582748672E-012</v>
+        <v>0.00527395179281757</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.0123135071889469</v>
@@ -2835,18 +3079,18 @@
         <v>-0.00119994698948199</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>-9.12951403214067E-010</v>
+        <v>0.00312397746586676</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-6.45035568514219E-014</v>
+        <v>-0.00293088571421178</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-1.29645757007888E-011</v>
+        <v>-0.00621536128339334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>-0.0276022535058532</v>
@@ -2868,18 +3112,18 @@
         <v>0.00174437296250791</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-2.12373346686334E-009</v>
+        <v>-0.0372466656700062</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>4.01490201967514E-014</v>
+        <v>-0.0614472677675368</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1.39006763153466E-011</v>
+        <v>0.00916844003716381</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>-0.0082331090329799</v>
@@ -2901,18 +3145,18 @@
         <v>-0.00847836695166311</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>-1.58697898332865E-009</v>
+        <v>-0.0241785054744246</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-2.87615529443394E-014</v>
+        <v>-0.0422379277778608</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>-1.84204066524269E-012</v>
+        <v>0.00478783797817611</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>-0.00183003491949521</v>
@@ -2934,18 +3178,18 @@
         <v>-0.0154136653582643</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>-1.56133695101953E-009</v>
+        <v>-0.0106529226681249</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>-8.51675579897314E-014</v>
+        <v>-0.0328785681551183</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>-1.57874691170084E-011</v>
+        <v>0.00586403991458944</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.010701584668754</v>
@@ -2967,18 +3211,18 @@
         <v>0.00534687048584585</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>-1.1099922527575E-009</v>
+        <v>-0.0197935279531243</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>-5.45137793569361E-015</v>
+        <v>0.00892446353054114</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>-7.16344973202788E-013</v>
+        <v>-0.00853823548684302</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>-1.51984723065521E-006</v>
@@ -3000,18 +3244,18 @@
         <v>-0.00346277651846645</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>3.0862044950132E-010</v>
+        <v>1.16304439114344E-014</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>-8.47332995914439E-014</v>
+        <v>0.00482409920103843</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-2.2235603460448E-011</v>
+        <v>-0.00317194605228697</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>-2.3062120958328E-006</v>
@@ -3033,18 +3277,18 @@
         <v>0.00195212576831357</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>2.50274877847094E-009</v>
+        <v>2.23739949442093E-013</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>-1.33900837157225E-013</v>
+        <v>4.0221404813717E-013</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>-4.84503822461889E-011</v>
+        <v>0.00940369543212764</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.00528077554766035</v>
@@ -3066,18 +3310,18 @@
         <v>0.00172461484627408</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>1.95651626169263E-009</v>
+        <v>0.0200984802205141</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>-1.04622889257549E-014</v>
+        <v>-0.00354868930892815</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>-2.36183628714472E-012</v>
+        <v>0.00195739241861481</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.0068723471955562</v>
@@ -3099,18 +3343,18 @@
         <v>-0.00139190868393162</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>2.03768346390076E-009</v>
+        <v>0.0200764011165618</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>1.51747423558609E-015</v>
+        <v>0.000795726496794644</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>2.69340105774063E-013</v>
+        <v>0.000525652252539588</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.00869915852080686</v>
@@ -3132,18 +3376,18 @@
         <v>0.000736280967029312</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>1.77995028382248E-009</v>
+        <v>0.00138032586386158</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>-3.25038150746201E-015</v>
+        <v>-0.000959911299589398</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>-7.85323809009755E-013</v>
+        <v>0.0011386681035843</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.0116568619165238</v>
@@ -3165,18 +3409,18 @@
         <v>-0.0019392186884342</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>2.282764112888E-009</v>
+        <v>0.0333291275259299</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>-2.45543646420444E-015</v>
+        <v>0.0034670413001517</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-6.85257406374262E-013</v>
+        <v>-0.000465243876001498</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>0.00935878455302583</v>
@@ -3198,18 +3442,18 @@
         <v>-0.00213638587833059</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>-2.6937147906906E-010</v>
+        <v>0.00748326947937564</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>-4.45618136912776E-014</v>
+        <v>0.00297733206137936</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>-1.27389160112183E-011</v>
+        <v>-0.00679798188671268</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0.00673700619762396</v>
@@ -3231,18 +3475,18 @@
         <v>3.43908929112402E-016</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>2.21361629295159E-011</v>
+        <v>-0.00864941412651805</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>1.74916615946891E-014</v>
+        <v>0.0251664608257595</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>1.86759670518057E-012</v>
+        <v>-0.0124728699134039</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>-2.83502872726002E-006</v>
@@ -3264,18 +3508,18 @@
         <v>0.000759562256923569</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>1.7608518841801E-009</v>
+        <v>0.00161049765059585</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>-9.84287960507838E-014</v>
+        <v>1.43320193418518E-012</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>-2.97249006018642E-011</v>
+        <v>0.000144112381558588</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3287,7 +3531,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3299,7 +3543,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3311,7 +3555,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3323,7 +3567,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3335,7 +3579,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3347,7 +3591,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3359,7 +3603,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3371,7 +3615,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3383,7 +3627,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3395,7 +3639,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3407,7 +3651,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3418,12 +3662,159 @@
       <c r="I48" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="C17:L21"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.35"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="true" max="2" min="2" style="5" width="0"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="8"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.39795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="8.53061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="9.43367346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="5" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>0.9411289388987</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>0.949881688223014</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>0.957588272345307</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0.965893282471577</v>
+      </c>
+      <c r="H20" s="15" t="n">
+        <v>0.990138037683906</v>
+      </c>
+      <c r="I20" s="16" t="n">
+        <v>0.999593173592292</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" s="18" customFormat="true" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="20" t="n">
+        <v>0.274390658828</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>0.281337538828</v>
+      </c>
+      <c r="F21" s="22" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>0.283123344860652</v>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0.381023696291994</v>
+      </c>
+      <c r="I21" s="22" t="n">
+        <v>1.04508378023619</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/SuplementaryResult/PMFsaccharoResultandAnalysis/PFMloading.xlsx
+++ b/SuplementaryResult/PMFsaccharoResultandAnalysis/PFMloading.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="983" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loadings" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>PFMA_L2 (lambda = 5)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>PCA</t>
   </si>
   <si>
-    <t>Alternative Solution PFMA_L2 (lambda = 5)</t>
+    <t> PFMA_L2 (lambda = 7)</t>
   </si>
   <si>
     <t>PMF1</t>
@@ -204,6 +204,9 @@
     <t>' CO2_in = CO2_ex'</t>
   </si>
   <si>
+    <t>Alternative Solution PFMA_L2 (lambda = 5)</t>
+  </si>
+  <si>
     <t>'Glc '</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
   </si>
   <si>
     <t>'CO2_in'</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>'F6P'</t>
@@ -500,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,8 +515,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -518,6 +524,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -616,8 +626,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -695,13 +705,13 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="n">
-        <v>0.761878934523462</v>
+        <v>0.707217838040298</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.774297033800886</v>
+        <v>0.715415269313331</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.776597624792046</v>
+        <v>0.718794455949786</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,13 +739,13 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="n">
-        <v>0.121929113070532</v>
+        <v>0.0948673478479521</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0.0146631140879037</v>
+        <v>0.0137953451312709</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.00144533629306775</v>
+        <v>0.00116137472065555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +783,13 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="n">
-        <v>0.32338466237505</v>
+        <v>0.311146494378398</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.198845079171032</v>
+        <v>0.162529676781735</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.114340109466256</v>
+        <v>0.196178474202124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,13 +817,13 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="n">
-        <v>0.00318375455578866</v>
+        <v>0.0179943257519754</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0.0995344612023977</v>
+        <v>0.105348458203567</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.440731473981573</v>
+        <v>0.00870402245406409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,13 +851,13 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="n">
-        <v>1.21699242028874E-013</v>
+        <v>4.744622609343E-013</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>0.0739688246853349</v>
+        <v>0.0856076262663537</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0.449911941576673</v>
+        <v>1.13927840035562E-008</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,13 +885,13 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="n">
-        <v>0.323384662374891</v>
+        <v>0.284887765911454</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0866369334893592</v>
+        <v>0.0491714917995617</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-0.323739614621909</v>
+        <v>0.182331837916333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,13 +919,13 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="n">
-        <v>0.266697082363093</v>
+        <v>0.203123236425075</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0.139548417731592</v>
+        <v>0.131960654961144</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>-0.0290740808028443</v>
+        <v>0.182194114540194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,13 +953,13 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="n">
-        <v>0.13287786796154</v>
+        <v>0.163473861895883</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>0.135812431737965</v>
+        <v>0.131861737080192</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>-0.0721908425699565</v>
+        <v>0.179534499435966</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,13 +987,13 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="n">
-        <v>0.323384662375092</v>
+        <v>0.311146494378624</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0.297809198190341</v>
+        <v>0.300538542371411</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.0475966301694199</v>
+        <v>0.359512401763594</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,13 +1021,13 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="n">
-        <v>0.323384662375067</v>
+        <v>0.31114649437854</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0.297809117212528</v>
+        <v>0.300208472886937</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.0508915836347126</v>
+        <v>0.355314589579626</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,13 +1055,13 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="n">
-        <v>0.323384662375089</v>
+        <v>0.311146494378593</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>0.297809198190707</v>
+        <v>0.300538542433047</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.0526546019850803</v>
+        <v>0.355425558521101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,13 +1089,13 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="n">
-        <v>6.733717387891E-014</v>
+        <v>4.27378464459169E-013</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0.0631299407374838</v>
+        <v>0.0632429727152201</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>7.20561332124207E-007</v>
+        <v>0.0096156874755537</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,13 +1123,13 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="n">
-        <v>0.0557819688954137</v>
+        <v>0.0991167385244205</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0.0756603473632698</v>
+        <v>0.0740433979245381</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>4.36372071254255E-007</v>
+        <v>0.0069519415604667</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,13 +1157,13 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="n">
-        <v>0.0602736774075041</v>
+        <v>0.114151977026815</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>0.247262982822804</v>
+        <v>0.24505339025744</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>3.5294541273885E-005</v>
+        <v>0.0187206259012094</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,13 +1191,13 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="n">
-        <v>5.81324426145555E-013</v>
+        <v>0.0622460062300839</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.223608441886676</v>
+        <v>0.218169279822933</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>1.16645074626454E-006</v>
+        <v>0.00128559669694915</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,13 +1225,13 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="n">
-        <v>2.58276675507268E-010</v>
+        <v>0.0650848291912352</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>0.238659763909824</v>
+        <v>0.234192999690061</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.000438097516908069</v>
+        <v>1.62986389259327E-008</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,13 +1259,13 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="n">
-        <v>-0.0303537429163857</v>
+        <v>0.123181241874446</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.294878312476595</v>
+        <v>0.294668510763151</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-0.0428899393584275</v>
+        <v>0.0165375648182809</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,13 +1293,13 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="n">
-        <v>-0.0957461903985928</v>
+        <v>0.0214262091410814</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.297809198189012</v>
+        <v>0.300538542418078</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>-0.0382085069990145</v>
+        <v>0.0111823567752574</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,13 +1327,13 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="n">
-        <v>0.0622684700159001</v>
+        <v>0.0963687710914905</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>5.58303789886979E-013</v>
+        <v>7.91160561274218E-012</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.0015258013945968</v>
+        <v>1.58051867817873E-008</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,13 +1361,13 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="n">
-        <v>0.323384662375034</v>
+        <v>0.311146494378269</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>2.48140243908103E-012</v>
+        <v>1.26929177057116E-011</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.0532434768398121</v>
+        <v>7.4476017188056E-009</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,13 +1395,13 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="n">
-        <v>0.0372466656699478</v>
+        <v>0.0336890171220764</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>0.0614472677696019</v>
+        <v>0.0600009862156913</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.0410626133252475</v>
+        <v>0.00889335549630079</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,13 +1429,13 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="n">
-        <v>0.0614251711442379</v>
+        <v>0.0500178657237262</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.103685195547081</v>
+        <v>0.103243363633614</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.0362735702523525</v>
+        <v>2.8673835679646E-008</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,13 +1463,13 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="n">
-        <v>1.15337721893664E-013</v>
+        <v>2.09691741417176E-012</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>0.136563763701062</v>
+        <v>0.138272124384137</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.00994368380360346</v>
+        <v>0.0028358765269843</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,13 +1497,13 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="n">
-        <v>-0.136755891289383</v>
+        <v>-0.0829176157355043</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>0.0413977015171738</v>
+        <v>0.0488919467205091</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-0.028136353561914</v>
+        <v>-0.0166293702594437</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,13 +1531,13 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="n">
-        <v>0.0448842695243843</v>
+        <v>0.0266365011918472</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>0.259117387058415</v>
+        <v>0.265354706120928</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>1.06534886696035E-006</v>
+        <v>0.347174718095927</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,13 +1565,13 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="n">
-        <v>1.218703493417E-013</v>
+        <v>1.98350263422628E-012</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>0.00482409920133687</v>
+        <v>0.00611757802340774</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>2.19929233494619E-007</v>
+        <v>0.00475442198773415</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,13 +1599,13 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="n">
-        <v>8.38976096345952E-014</v>
+        <v>2.20038386162889E-013</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>2.17648034051156E-013</v>
+        <v>4.7132001625086E-012</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.00300966734405957</v>
+        <v>6.42140999021354E-009</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,13 +1633,13 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="n">
-        <v>0.0155115836174756</v>
+        <v>0.0188075917273458</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.0260177662804635</v>
+        <v>0.0260289369006231</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.149886412704659</v>
+        <v>0.0013083856433824</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1657,13 +1667,13 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="n">
-        <v>-0.0238068454793603</v>
+        <v>-0.0253198907471294</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>0.057421507674851</v>
+        <v>0.0718878627429078</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.295379158520714</v>
+        <v>0.0020610348100938</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,13 +1701,13 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="n">
-        <v>-0.0045868966030591</v>
+        <v>-0.00151654708594611</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.0295664555893283</v>
+        <v>0.0338548198949407</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.147801670256686</v>
+        <v>0.00158767434201192</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,13 +1735,13 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="n">
-        <v>-0.00596722246693307</v>
+        <v>-0.0171813345371491</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.0305263668888797</v>
+        <v>0.0400393343821249</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.146586592135487</v>
+        <v>0.00139905096996828</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,13 +1769,13 @@
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="n">
-        <v>-0.0392963499928629</v>
+        <v>-0.0447855353239414</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.027059325588728</v>
+        <v>0.0418769888040281</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.147051836011488</v>
+        <v>0.000212595148181257</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,13 +1803,13 @@
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="n">
-        <v>0.00748326947958097</v>
+        <v>0.00819623714249465</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>0.00297733206176477</v>
+        <v>0.00155766190516035</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>4.94479181546895E-010</v>
+        <v>0.00445360948661421</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,13 +1837,13 @@
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="n">
-        <v>1.79809961014723E-013</v>
+        <v>1.39154740775798E-013</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>3.07154537407909E-013</v>
+        <v>6.38427188162464E-012</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.00664057774490529</v>
+        <v>3.29012870897583E-009</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1861,13 +1871,13 @@
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="n">
-        <v>0.0634286796856399</v>
+        <v>0.0503452493726453</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.0251664608266223</v>
+        <v>0.0286137197208733</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.00744112649353739</v>
+        <v>0.0113556387396573</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,13 +1905,13 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="n">
-        <v>0.0720780938121579</v>
+        <v>0.0528023052684696</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>8.62825094330146E-013</v>
+        <v>1.95540766441431E-011</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.0199139964069413</v>
+        <v>6.96896120676755E-006</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,13 +1939,13 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="n">
-        <v>1.15100483801476E-013</v>
+        <v>1.92148938936765E-012</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>5.34159152877293E-013</v>
+        <v>9.3504421341369E-012</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>1.99955022414947E-006</v>
+        <v>5.426524617852E-008</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,13 +1973,13 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="n">
-        <v>0.00161049765052989</v>
+        <v>8.22800706430403E-010</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.04974561473046E-012</v>
+        <v>2.44766251054975E-011</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.000445205901206644</v>
+        <v>0.00088349477568632</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,13 +2007,13 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="n">
-        <v>0.323384662375009</v>
+        <v>0.311146494369486</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.986720680203E-013</v>
+        <v>3.24672227811823E-012</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>2.75613334121022E-006</v>
+        <v>3.7785978298743E-007</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2031,13 +2041,13 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="n">
-        <v>1.37629549611656E-013</v>
+        <v>3.70981938092524E-017</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>4.22136788298536E-013</v>
+        <v>7.35502227989567E-012</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.000849000195720463</v>
+        <v>0.00447134012798018</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,13 +2075,13 @@
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="n">
-        <v>1.1082027528855E-013</v>
+        <v>1.00969142971015E-012</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.286766525844417</v>
+        <v>0.300538542347255</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>2.59367908719583E-006</v>
+        <v>0.316630666186902</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,13 +2109,13 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="n">
-        <v>4.40149734807461E-013</v>
+        <v>3.8234589953262E-012</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>1.23647018107516E-012</v>
+        <v>2.66121426750375E-011</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>8.12752938357856E-006</v>
+        <v>7.1300292282265E-008</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2133,13 +2143,13 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="n">
-        <v>1.3447816917447E-013</v>
+        <v>9.40777082215604E-013</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>3.81993237687861E-013</v>
+        <v>7.4478240785499E-012</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>1.20509471886682E-006</v>
+        <v>0.0141387124769335</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,13 +2177,13 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="n">
-        <v>7.60095366072075E-014</v>
+        <v>3.98970443900251E-013</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>5.58492972467731E-013</v>
+        <v>9.50412936589994E-012</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>8.07531708044688E-007</v>
+        <v>1.72261092555769E-008</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,13 +2211,13 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="n">
-        <v>7.60210881264376E-014</v>
+        <v>3.99154784319485E-013</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>5.59078300849644E-013</v>
+        <v>9.5125998611807E-012</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>8.08435743740456E-007</v>
+        <v>1.71809916556464E-008</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,13 +2245,13 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="n">
-        <v>2.5001277664834E-013</v>
+        <v>2.9358462839569E-012</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>1.35068760935332E-012</v>
+        <v>4.23718864802637E-011</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>5.17336640007639E-006</v>
+        <v>1.827161872699E-007</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,13 +2279,13 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="n">
-        <v>0.112052210168038</v>
+        <v>0.0155145185557592</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>5.53670724284897E-013</v>
+        <v>8.79681754194864E-012</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>0.0454952115760554</v>
+        <v>4.32465446479404E-007</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,13 +2313,13 @@
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="n">
-        <v>0.323384662373951</v>
+        <v>0.311146494373863</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>2.22151146631762E-009</v>
+        <v>1.51627899436328E-009</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>3.35260783071988E-005</v>
+        <v>0.35951213486026</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,13 +2347,13 @@
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="n">
-        <v>0.061287774945497</v>
+        <v>0.311146494376553</v>
       </c>
       <c r="L53" s="1" t="n">
-        <v>0.297809198190851</v>
+        <v>0.300538542436049</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>0.533378112031427</v>
+        <v>-0.359512396575583</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,10 +2398,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2410,11 +2420,11 @@
       <c r="H1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
@@ -2475,13 +2485,13 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="n">
-        <v>0.761878934523462</v>
+        <v>0.707217838040298</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.774297033800886</v>
+        <v>0.715415269313331</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.776597624792046</v>
+        <v>0.718794455949786</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,13 +2519,13 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="n">
-        <v>0.121929113070532</v>
+        <v>0.0948673478479521</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0.0146631140879037</v>
+        <v>0.0137953451312709</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.00144533629306775</v>
+        <v>0.00116137472065555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,7 +2539,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.523823117882363</v>
@@ -2551,18 +2561,18 @@
         <v>-0.0173260053552072</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>-0.00318375455569042</v>
+        <v>0.00826440271496929</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0.0126736844790894</v>
+        <v>0.00800972677536991</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>-0.00302530997952487</v>
+        <v>0.00317522417541618</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.0289120349374275</v>
@@ -2584,18 +2594,18 @@
         <v>8.2572837456496E-016</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.00318375455566696</v>
+        <v>0.0179943257515009</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0.0255656365170627</v>
+        <v>0.0197408319372131</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>-0.00918046759510094</v>
+        <v>0.00870401106128008</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-0.00824045738840915</v>
@@ -2617,18 +2627,18 @@
         <v>0.000657562295423339</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.00829526186200635</v>
+        <v>0.00651229902025808</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>-0.00947044926997961</v>
+        <v>-0.0123091733771772</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0.0046463703513005</v>
+        <v>-0.00336940906069221</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>0.10909851633272</v>
@@ -2650,18 +2660,18 @@
         <v>0.938104898492634</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.335263057075626</v>
+        <v>0.296179843847712</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0549707925991866</v>
+        <v>0.0461200551738973</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>-0.0216176794845806</v>
+        <v>0.020575270971412</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>0.0118978699930333</v>
@@ -2683,18 +2693,21 @@
         <v>-0.00140472076868861</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.011424007552002</v>
+        <v>0.0197976596252884</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>0.00467420823537531</v>
+        <v>-0.00087283997542903</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>-0.00102710567208947</v>
+        <v>0.00174936949428794</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>0.0153529252580776</v>
@@ -2716,18 +2729,18 @@
         <v>0.0077350618961134</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>0.0217670042335141</v>
+        <v>0.0241348559734327</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>0.00373598599307259</v>
+        <v>9.89178721551922E-005</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>-0.00237844980894323</v>
+        <v>0.00265918263878198</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>0.00927786032661964</v>
@@ -2749,18 +2762,18 @@
         <v>0.00324885133496008</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.0382742638205165</v>
+        <v>0.0263298560695947</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>0.00365106556828264</v>
+        <v>-0.00102367601514433</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>-0.000815379460420458</v>
+        <v>0.00145488229951608</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-0.00814296789824139</v>
@@ -2782,18 +2795,18 @@
         <v>-0.00113534126618612</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>-0.0074832694795561</v>
+        <v>-0.00819623714241044</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>-0.00297725108395176</v>
+        <v>-0.00122759242068623</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>-0.00329495395977192</v>
+        <v>-0.000255797302646289</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>-0.00121879794430352</v>
@@ -2815,18 +2828,18 @@
         <v>-0.00293482985938504</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-4.8409586069949E-014</v>
+        <v>-5.24095754191312E-014</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-8.09782584800058E-008</v>
+        <v>-0.000330069547506823</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-0.00192432838755454</v>
+        <v>-0.000960523565791398</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>-0.0107553119283778</v>
@@ -2848,18 +2861,18 @@
         <v>-0.00778181098626836</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-0.0448842695246722</v>
+        <v>-0.0266365011946707</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-0.0244381296093506</v>
+        <v>-0.0280591364446025</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-0.000645216294350066</v>
+        <v>-0.00163322357800749</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>-0.0034919327414671</v>
@@ -2881,18 +2894,18 @@
         <v>0.00347995017186158</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.00487600346993576</v>
+        <v>-0.00274796825530339</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-0.0125304066265476</v>
+        <v>-0.0108004252305902</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0.000537519557389934</v>
+        <v>-0.00108139073731985</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>-0.0226813464157851</v>
@@ -2914,18 +2927,18 @@
         <v>0.0054163896547587</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-0.00449170851199292</v>
+        <v>-0.0150352385002972</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-0.0350388717585278</v>
+        <v>-0.0327378679497208</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>0.00979845560895717</v>
+        <v>-0.00951408203039583</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>0.00719505030958491</v>
@@ -2947,18 +2960,18 @@
         <v>0.000579095645355394</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>-0.019263976516714</v>
+        <v>-0.00980815215022887</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>0.00914851384903393</v>
+        <v>0.00659320544012891</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>-0.0101074479783744</v>
+        <v>0.00909110113349165</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>0.00698708040034207</v>
@@ -2980,18 +2993,18 @@
         <v>-0.000839629706844333</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>-0.00315500227896709</v>
+        <v>0.00156072142114964</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>-0.00151191989184502</v>
+        <v>-0.00172960932873787</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>-0.00741217176940984</v>
+        <v>0.00607920774841572</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>-0.000604923112449228</v>
@@ -3013,18 +3026,18 @@
         <v>-0.00376515903342963</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>-2.57750402900967E-010</v>
+        <v>-0.00283882296115131</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>-0.0150513220233165</v>
+        <v>-0.01602371987007</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>-0.000776531144449989</v>
+        <v>-0.000502955652881842</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>-0.0200740442241131</v>
@@ -3046,18 +3059,18 @@
         <v>0.00102428865831568</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>-0.0182697873077359</v>
+        <v>-0.0232656818663252</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>-0.0310520877407024</v>
+        <v>-0.0318617913610136</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.00527395179281757</v>
+        <v>-0.00518234224543123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>0.0123135071889469</v>
@@ -3079,18 +3092,18 @@
         <v>-0.00119994698948199</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.00312397746586676</v>
+        <v>0.00538626163805106</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>-0.00293088571421178</v>
+        <v>-0.00587003168945108</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>-0.00621536128339334</v>
+        <v>0.00535512093754448</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>-0.0276022535058532</v>
@@ -3112,18 +3125,18 @@
         <v>0.00174437296250791</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>-0.0372466656700062</v>
+        <v>-0.0336890171135138</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>-0.0614472677675368</v>
+        <v>-0.0600009862109584</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.00916844003716381</v>
+        <v>-0.00889373232989205</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>-0.0082331090329799</v>
@@ -3145,18 +3158,18 @@
         <v>-0.00847836695166311</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>-0.0241785054744246</v>
+        <v>-0.0163288486025905</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>-0.0422379277778608</v>
+        <v>-0.0432423774253706</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.00478783797817611</v>
+        <v>-0.00524538565446838</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>-0.00183003491949521</v>
@@ -3178,18 +3191,18 @@
         <v>-0.0154136653582643</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>-0.0106529226681249</v>
+        <v>-0.00278443954684032</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>-0.0328785681551183</v>
+        <v>-0.0350287607748581</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.00586403991458944</v>
+        <v>-0.00574918789754251</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>0.010701584668754</v>
@@ -3211,18 +3224,18 @@
         <v>0.00534687048584585</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>-0.0197935279531243</v>
+        <v>-0.00347880927818076</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>0.00892446353054114</v>
+        <v>0.00759053248760634</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>-0.00853823548684302</v>
+        <v>0.00751283277570163</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>-1.51984723065521E-006</v>
@@ -3244,18 +3257,18 @@
         <v>-0.00346277651846645</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>1.16304439114344E-014</v>
+        <v>1.7634571474691E-012</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>0.00482409920103843</v>
+        <v>0.00611757801728679</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>-0.00317194605228697</v>
+        <v>0.00389860106582876</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>-2.3062120958328E-006</v>
@@ -3277,18 +3290,18 @@
         <v>0.00195212576831357</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>2.23739949442093E-013</v>
+        <v>3.59182353623205E-013</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>4.0221404813717E-013</v>
+        <v>8.96157357405154E-012</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.00940369543212764</v>
+        <v>-0.00129846746162674</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>0.00528077554766035</v>
@@ -3310,18 +3323,18 @@
         <v>0.00172461484627408</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.0200984802205141</v>
+        <v>0.0203241388132919</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>-0.00354868930892815</v>
+        <v>-0.00782588299542081</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.00195739241861481</v>
+        <v>-0.000949989717826546</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>0.0068723471955562</v>
@@ -3343,18 +3356,18 @@
         <v>-0.00139190868393162</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.0200764011165618</v>
+        <v>0.020982191662758</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.000795726496794644</v>
+        <v>-0.003843945956061</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.000525652252539588</v>
+        <v>0.000260765319900623</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>0.00869915852080686</v>
@@ -3376,18 +3389,18 @@
         <v>0.000736280967029312</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.00138032586386158</v>
+        <v>0.015664787451203</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>-0.000959911299589398</v>
+        <v>-0.00618451448784614</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.0011386681035843</v>
+        <v>-0.000213797239474567</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>0.0116568619165238</v>
@@ -3409,18 +3422,18 @@
         <v>-0.0019392186884342</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.0333291275259299</v>
+        <v>0.0276042007867923</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>0.0034670413001517</v>
+        <v>-0.00183765442190319</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-0.000465243876001498</v>
+        <v>0.00118645582178702</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>0.00935878455302583</v>
@@ -3442,18 +3455,18 @@
         <v>-0.00213638587833059</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.00748326947937564</v>
+        <v>0.00819623714235549</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.00297733206137936</v>
+        <v>0.00155766189741246</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>-0.00679798188671268</v>
+        <v>0.00362461973675798</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>0.00673700619762396</v>
@@ -3475,18 +3488,18 @@
         <v>3.43908929112402E-016</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.00864941412651805</v>
+        <v>-0.00245705589582432</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.0251664608257595</v>
+        <v>0.0286137197013192</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>-0.0124728699134039</v>
+        <v>0.0113486697784505</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>-2.83502872726002E-006</v>
@@ -3508,18 +3521,18 @@
         <v>0.000759562256923569</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.00161049765059585</v>
+        <v>8.24722182575716E-010</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>1.43320193418518E-012</v>
+        <v>3.12013242857117E-011</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.000144112381558588</v>
+        <v>-0.000712719384756424</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3531,7 +3544,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3543,7 +3556,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3555,7 +3568,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3567,7 +3580,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3579,7 +3592,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3591,7 +3604,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3603,7 +3616,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3615,7 +3628,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3627,7 +3640,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3639,7 +3652,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3651,7 +3664,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3682,125 +3695,125 @@
   </sheetPr>
   <dimension ref="C17:L21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="11.5204081632653"/>
-    <col collapsed="false" hidden="true" max="2" min="2" style="5" width="0"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="8"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="8.63265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="8.39795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="8.53061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="6.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="5" width="9.43367346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="5" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="6" width="11.5204081632653"/>
+    <col collapsed="false" hidden="true" max="2" min="2" style="6" width="0"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="6" width="20.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="6" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="6" width="8"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="6" width="8.63265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="6" width="8.39795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="6" width="8.53061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="6" width="6.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="6" width="9.43367346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="6" width="6.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="6" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="14" t="n">
+      <c r="C20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="15" t="n">
         <v>0.9411289388987</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="16" t="n">
         <v>0.949881688223014</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="17" t="n">
         <v>0.957588272345307</v>
       </c>
-      <c r="G20" s="14" t="n">
+      <c r="G20" s="15" t="n">
         <v>0.965893282471577</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H20" s="16" t="n">
         <v>0.990138037683906</v>
       </c>
-      <c r="I20" s="16" t="n">
+      <c r="I20" s="17" t="n">
         <v>0.999593173592292</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" s="18" customFormat="true" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="20" t="n">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="36.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="21" t="n">
         <v>0.274390658828</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="22" t="n">
         <v>0.281337538828</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="23" t="n">
         <v>0.0535</v>
       </c>
-      <c r="G21" s="20" t="n">
+      <c r="G21" s="21" t="n">
         <v>0.283123344860652</v>
       </c>
-      <c r="H21" s="21" t="n">
+      <c r="H21" s="22" t="n">
         <v>0.381023696291994</v>
       </c>
-      <c r="I21" s="22" t="n">
+      <c r="I21" s="23" t="n">
         <v>1.04508378023619</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">
